--- a/ACG/ACG/マップ.xlsx
+++ b/ACG/ACG/マップ.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\team制作\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,53 +99,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -209,20 +177,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -547,7 +501,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="BJ28" sqref="BJ28"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -557,7 +511,7 @@
   <sheetData>
     <row r="1" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -668,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="AL1" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="2">
         <v>0</v>
@@ -686,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS1" s="2">
         <v>0</v>
@@ -859,7 +813,7 @@
     </row>
     <row r="2" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -916,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2">
         <v>0</v>
@@ -946,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="2">
         <v>0</v>
@@ -970,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="AL2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="2">
         <v>0</v>
       </c>
       <c r="AN2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="2">
         <v>0</v>
@@ -988,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="2">
         <v>0</v>
@@ -1006,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
         <v>0</v>
@@ -1036,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="BH2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="2">
         <v>0</v>
@@ -1066,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="BR2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="2">
         <v>0</v>
@@ -1096,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="CB2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2" s="2">
         <v>0</v>
@@ -1126,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="CL2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN2" s="2">
         <v>0</v>
@@ -1161,7 +1115,7 @@
     </row>
     <row r="3" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1272,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="2">
         <v>0</v>
@@ -1281,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="2">
         <v>0</v>
@@ -1463,7 +1417,7 @@
     </row>
     <row r="4" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1574,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2">
         <v>0</v>
@@ -1592,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="2">
         <v>0</v>
@@ -1751,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="CS4" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT4" s="2">
         <v>0</v>
@@ -1765,7 +1719,7 @@
     </row>
     <row r="5" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1783,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1798,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1894,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="2">
         <v>0</v>
@@ -2038,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="CN5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO5" s="2">
         <v>0</v>
@@ -2050,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="CR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU5" s="2">
         <v>0</v>
@@ -2067,7 +2021,7 @@
     </row>
     <row r="6" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2085,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2100,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -2130,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <v>0</v>
@@ -2259,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="2">
         <v>0</v>
@@ -2310,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="CD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG6" s="2">
         <v>0</v>
@@ -2340,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="CN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO6" s="2">
         <v>0</v>
@@ -2369,7 +2323,7 @@
     </row>
     <row r="7" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -2387,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -2402,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -2414,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -2564,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>
@@ -2636,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="CL7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM7" s="2">
         <v>0</v>
       </c>
       <c r="CN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO7" s="2">
         <v>0</v>
       </c>
       <c r="CP7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ7" s="2">
         <v>0</v>
@@ -2671,7 +2625,7 @@
     </row>
     <row r="8" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -2689,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2704,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -2752,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="2">
         <v>0</v>
@@ -2782,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2">
         <v>0</v>
@@ -2899,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="BY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8" s="2">
         <v>0</v>
@@ -2938,19 +2892,19 @@
         <v>0</v>
       </c>
       <c r="CL8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM8" s="2">
         <v>0</v>
       </c>
       <c r="CN8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO8" s="2">
         <v>0</v>
       </c>
       <c r="CP8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ8" s="2">
         <v>0</v>
@@ -2973,7 +2927,7 @@
     </row>
     <row r="9" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -2991,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -3006,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -3084,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="2">
         <v>0</v>
@@ -3102,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
@@ -3240,19 +3194,19 @@
         <v>0</v>
       </c>
       <c r="CL9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM9" s="2">
         <v>0</v>
       </c>
       <c r="CN9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO9" s="2">
         <v>0</v>
       </c>
       <c r="CP9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ9" s="2">
         <v>0</v>
@@ -3281,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3296,16 +3250,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -3347,31 +3301,31 @@
         <v>1</v>
       </c>
       <c r="Y10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="2">
         <v>1</v>
@@ -3395,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="2">
         <v>1</v>
@@ -3431,16 +3385,16 @@
         <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>1</v>
@@ -3494,31 +3448,31 @@
         <v>1</v>
       </c>
       <c r="BV10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE10" s="2">
         <v>1</v>
@@ -3563,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="CS10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT10" s="2">
         <v>1</v>
@@ -3577,36 +3531,39 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A10:AN10 A7:Z7 AN6:AN9 AO6:AX10 AZ1:AZ8 AY1:AY9 CJ1:CV9 A8:AM9 A1:AX5 A6:AA6 AB6:AM7">
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="3">
+  <conditionalFormatting sqref="A7:Z7 AN6:AN9 AO6:AX10 AY1:AY9 CJ1:CV9 A8:AM9 A6:AA6 G7:G9 A1:AX5 B2:AX8 C1:CU8 B9:CU9 A10:CT10">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:BD9 BA5:BD8 BK9:CH9 BE5:BJ9 CI1:CI9 BK7:BX8 CB7:CH8 BY7:CA7 BA1:CH4 BK5:CH6 AY10:CV10">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="3">
+  <conditionalFormatting sqref="AZ9:BD9 AY10:CV10 BA1:CI10">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AY1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AY1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AY1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY8:CA8">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",BY8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACG/ACG/マップ.xlsx
+++ b/ACG/ACG/マップ.xlsx
@@ -99,11 +99,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -170,6 +170,23 @@
       <fill>
         <patternFill>
           <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -501,7 +518,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2987,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
@@ -3023,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH9" s="2">
         <v>0</v>
@@ -3532,38 +3549,43 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A7:Z7 AN6:AN9 AO6:AX10 AY1:AY9 CJ1:CV9 A8:AM9 A6:AA6 G7:G9 A1:AX5 B2:AX8 C1:CU8 B9:CU9 A10:CT10">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ9:BD9 AY10:CV10 BA1:CI10">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AY1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AY1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AY1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY8:CA8">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",BY8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACG/ACG/マップ.xlsx
+++ b/ACG/ACG/マップ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\team制作\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\チーム制作GA1BA\team\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,77 +99,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -517,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3004,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
@@ -3040,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH9" s="2">
         <v>0</v>
@@ -3549,37 +3483,37 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A7:Z7 AN6:AN9 AO6:AX10 AY1:AY9 CJ1:CV9 A8:AM9 A6:AA6 G7:G9 A1:AX5 B2:AX8 C1:CU8 B9:CU9 A10:CT10">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ9:BD9 AY10:CV10 BA1:CI10">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",AY1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",AY1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",AY1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY8:CA8">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",BY8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACG/ACG/マップ.xlsx
+++ b/ACG/ACG/マップ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="59">
   <si>
     <t>00</t>
     <phoneticPr fontId="1"/>
@@ -99,6 +99,166 @@
   </si>
   <si>
     <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -184,28 +344,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -219,7 +358,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -240,17 +379,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -264,49 +414,56 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -586,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV11"/>
+  <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="CH8" sqref="CH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -782,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BK1" s="2" t="s">
         <v>0</v>
@@ -881,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="CQ1" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CR1" s="2" t="s">
         <v>0</v>
@@ -896,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -1084,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BK2" s="2" t="s">
         <v>0</v>
@@ -1171,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CN2" s="2" t="s">
         <v>0</v>
@@ -1183,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CR2" s="2" t="s">
         <v>0</v>
@@ -1198,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -1299,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>0</v>
@@ -1386,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="BK3" s="2" t="s">
         <v>0</v>
@@ -1473,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="CM3" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CN3" s="2" t="s">
         <v>0</v>
@@ -1485,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="CQ3" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CR3" s="2" t="s">
         <v>0</v>
@@ -1500,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="CV3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -1610,13 +1767,13 @@
         <v>12</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM4" s="2" t="s">
         <v>0</v>
@@ -1631,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT4" s="2" t="s">
         <v>0</v>
@@ -1688,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BK4" s="2" t="s">
         <v>0</v>
@@ -1757,25 +1914,25 @@
         <v>0</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="CH4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="CI4" s="2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="CJ4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="CK4" s="2" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="CM4" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CN4" s="2" t="s">
         <v>0</v>
@@ -1787,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="CQ4" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CR4" s="2" t="s">
         <v>0</v>
@@ -1802,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="CV4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -1930,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AQ5" s="2" t="s">
         <v>0</v>
@@ -1939,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AT5" s="2" t="s">
         <v>0</v>
@@ -1963,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BC5" s="2" t="s">
         <v>0</v>
@@ -1987,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BK5" s="2" t="s">
         <v>0</v>
@@ -2002,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="BN5" s="2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BO5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BP5" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>0</v>
@@ -2056,28 +2213,28 @@
         <v>0</v>
       </c>
       <c r="CF5" s="2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CH5" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CI5" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CK5" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CM5" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CN5" s="2" t="s">
         <v>0</v>
@@ -2089,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="CQ5" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CR5" s="2" t="s">
         <v>0</v>
@@ -2104,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="CV5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2241,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT6" s="2" t="s">
         <v>0</v>
@@ -2265,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC6" s="2" t="s">
         <v>0</v>
@@ -2289,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BK6" s="2" t="s">
         <v>0</v>
@@ -2310,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BQ6" s="2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BS6" s="2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BT6" s="2" t="s">
         <v>0</v>
@@ -2367,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="CI6" s="2" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="CJ6" s="2" t="s">
         <v>0</v>
@@ -2379,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="CM6" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CN6" s="2" t="s">
         <v>0</v>
@@ -2391,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="CQ6" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CR6" s="2" t="s">
         <v>0</v>
@@ -2406,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="CV6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2543,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT7" s="2" t="s">
         <v>0</v>
@@ -2579,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="BF7" s="2" t="s">
         <v>0</v>
@@ -2594,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BK7" s="2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BL7" s="2" t="s">
         <v>0</v>
@@ -2612,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BQ7" s="2" t="s">
         <v>0</v>
@@ -2651,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="CC7" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="CD7" s="2" t="s">
         <v>0</v>
@@ -2669,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="CI7" s="2" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="CJ7" s="2" t="s">
         <v>0</v>
@@ -2681,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="CM7" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CN7" s="2" t="s">
         <v>0</v>
@@ -2693,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="CQ7" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CR7" s="2" t="s">
         <v>0</v>
@@ -2708,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="CV7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -2821,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>0</v>
@@ -2833,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP8" s="2" t="s">
         <v>0</v>
@@ -2845,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT8" s="2" t="s">
         <v>0</v>
@@ -2860,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AY8" s="2" t="s">
         <v>0</v>
@@ -2881,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BF8" s="2" t="s">
         <v>0</v>
@@ -2914,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BQ8" s="2" t="s">
         <v>0</v>
@@ -2929,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="BU8" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="BV8" s="2" t="s">
         <v>0</v>
@@ -2953,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="CC8" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CD8" s="2" t="s">
         <v>0</v>
@@ -2971,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="CI8" s="2" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="CJ8" s="2" t="s">
         <v>0</v>
@@ -2983,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="CM8" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CN8" s="2" t="s">
         <v>0</v>
@@ -2995,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="CQ8" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CR8" s="2" t="s">
         <v>0</v>
@@ -3010,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="CV8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -3123,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>0</v>
@@ -3132,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP9" s="2" t="s">
         <v>0</v>
@@ -3144,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AT9" s="2" t="s">
         <v>0</v>
@@ -3159,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AZ9" s="2" t="s">
         <v>0</v>
@@ -3183,55 +3340,55 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BF9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BJ9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BL9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BM9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BN9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BO9" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BP9" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BQ9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BR9" s="2" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BS9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BT9" s="2" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BU9" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BV9" s="2" t="s">
         <v>0</v>
@@ -3252,16 +3409,16 @@
         <v>0</v>
       </c>
       <c r="CB9" s="2" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="CC9" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CE9" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CF9" s="2" t="s">
         <v>0</v>
@@ -3273,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="CI9" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CJ9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="CK9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="CL9" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="CM9" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CN9" s="2" t="s">
         <v>0</v>
@@ -3297,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="CQ9" s="2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="CR9" s="2" t="s">
         <v>0</v>
@@ -3312,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="CV9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -3584,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="CL10" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="CM10" s="2" t="s">
         <v>1</v>
@@ -3615,330 +3772,68 @@
       </c>
       <c r="CV10" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1">
-        <v>9</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1">
-        <v>11</v>
-      </c>
-      <c r="L11" s="1">
-        <v>12</v>
-      </c>
-      <c r="M11" s="1">
-        <v>13</v>
-      </c>
-      <c r="N11" s="1">
-        <v>14</v>
-      </c>
-      <c r="O11" s="1">
-        <v>15</v>
-      </c>
-      <c r="P11" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>17</v>
-      </c>
-      <c r="R11" s="1">
-        <v>18</v>
-      </c>
-      <c r="S11" s="1">
-        <v>19</v>
-      </c>
-      <c r="T11" s="1">
-        <v>20</v>
-      </c>
-      <c r="U11" s="1">
-        <v>21</v>
-      </c>
-      <c r="V11" s="1">
-        <v>22</v>
-      </c>
-      <c r="W11" s="1">
-        <v>23</v>
-      </c>
-      <c r="X11" s="1">
-        <v>24</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>25</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>26</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>27</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>28</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>29</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>31</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>32</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>33</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>34</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>35</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>36</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>37</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>38</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>39</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>40</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>41</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>42</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>43</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>44</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>45</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>46</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>47</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>48</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>49</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>50</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>51</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>52</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>53</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>54</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>55</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>56</v>
-      </c>
-      <c r="BE11" s="1">
-        <v>57</v>
-      </c>
-      <c r="BF11" s="1">
-        <v>58</v>
-      </c>
-      <c r="BG11" s="1">
-        <v>59</v>
-      </c>
-      <c r="BH11" s="1">
-        <v>60</v>
-      </c>
-      <c r="BI11" s="1">
-        <v>61</v>
-      </c>
-      <c r="BJ11" s="1">
-        <v>62</v>
-      </c>
-      <c r="BK11" s="1">
-        <v>63</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>64</v>
-      </c>
-      <c r="BM11" s="1">
-        <v>65</v>
-      </c>
-      <c r="BN11" s="1">
-        <v>66</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>67</v>
-      </c>
-      <c r="BP11" s="1">
-        <v>68</v>
-      </c>
-      <c r="BQ11" s="1">
-        <v>69</v>
-      </c>
-      <c r="BR11" s="1">
-        <v>70</v>
-      </c>
-      <c r="BS11" s="1">
-        <v>71</v>
-      </c>
-      <c r="BT11" s="1">
-        <v>72</v>
-      </c>
-      <c r="BU11" s="1">
-        <v>73</v>
-      </c>
-      <c r="BV11" s="1">
-        <v>74</v>
-      </c>
-      <c r="BW11" s="1">
-        <v>75</v>
-      </c>
-      <c r="BX11" s="1">
-        <v>76</v>
-      </c>
-      <c r="BY11" s="1">
-        <v>77</v>
-      </c>
-      <c r="BZ11" s="1">
-        <v>78</v>
-      </c>
-      <c r="CA11" s="1">
-        <v>79</v>
-      </c>
-      <c r="CB11" s="1">
-        <v>80</v>
-      </c>
-      <c r="CC11" s="1">
-        <v>81</v>
-      </c>
-      <c r="CD11" s="1">
-        <v>82</v>
-      </c>
-      <c r="CE11" s="1">
-        <v>83</v>
-      </c>
-      <c r="CF11" s="1">
-        <v>84</v>
-      </c>
-      <c r="CG11" s="1">
-        <v>85</v>
-      </c>
-      <c r="CH11" s="1">
-        <v>86</v>
-      </c>
-      <c r="CI11" s="1">
-        <v>87</v>
-      </c>
-      <c r="CJ11" s="1">
-        <v>88</v>
-      </c>
-      <c r="CK11" s="1">
-        <v>89</v>
-      </c>
-      <c r="CL11" s="1">
-        <v>90</v>
-      </c>
-      <c r="CM11" s="1">
-        <v>91</v>
-      </c>
-      <c r="CN11" s="1">
-        <v>92</v>
-      </c>
-      <c r="CO11" s="1">
-        <v>93</v>
-      </c>
-      <c r="CP11" s="1">
-        <v>94</v>
-      </c>
-      <c r="CQ11" s="1">
-        <v>95</v>
-      </c>
-      <c r="CR11" s="1">
-        <v>96</v>
-      </c>
-      <c r="CS11" s="1">
-        <v>97</v>
-      </c>
-      <c r="CT11" s="1">
-        <v>98</v>
-      </c>
-      <c r="CU11" s="1">
-        <v>99</v>
-      </c>
-      <c r="CV11" s="1">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="00">
+  <conditionalFormatting sqref="A11:XFD1048576 A8:CN10 A1:XFD2 CV5:XFD9 CO10:XFD10 CN3:CP4 CN5:CN7 A3:CM7 CR3:XFD4 CQ3:CQ8">
+    <cfRule type="beginsWith" dxfId="5" priority="13" operator="beginsWith" text="4">
+      <formula>LEFT(A1,LEN("4"))="4"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="14" operator="beginsWith" text="3">
+      <formula>LEFT(A1,LEN("3"))="3"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="15" operator="beginsWith" text="2">
+      <formula>LEFT(A1,LEN("2"))="2"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="00">
       <formula>NOT(ISERROR(SEARCH("00",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="5" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1" priority="17" operator="beginsWith" text="0">
       <formula>LEFT(A1,LEN("0"))="0"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="6" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="0" priority="18" operator="beginsWith" text="1">
       <formula>LEFT(A1,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" operator="beginsWith" text="2">
-      <formula>LEFT(A1,LEN("2"))="2"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO5:CP6 CR5:CU6">
+    <cfRule type="beginsWith" dxfId="17" priority="7" operator="beginsWith" text="4">
+      <formula>LEFT(CO5,LEN("4"))="4"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" operator="beginsWith" text="3">
-      <formula>LEFT(A1,LEN("3"))="3"</formula>
+    <cfRule type="beginsWith" dxfId="16" priority="8" operator="beginsWith" text="3">
+      <formula>LEFT(CO5,LEN("3"))="3"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="4">
-      <formula>LEFT(A1,LEN("4"))="4"</formula>
+    <cfRule type="beginsWith" dxfId="15" priority="9" operator="beginsWith" text="2">
+      <formula>LEFT(CO5,LEN("2"))="2"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="00">
+      <formula>NOT(ISERROR(SEARCH("00",CO5)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="11" operator="beginsWith" text="0">
+      <formula>LEFT(CO5,LEN("0"))="0"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="12" priority="12" operator="beginsWith" text="1">
+      <formula>LEFT(CO5,LEN("1"))="1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO9:CU9 CO7:CP8 CR7:CU8">
+    <cfRule type="beginsWith" dxfId="11" priority="1" operator="beginsWith" text="4">
+      <formula>LEFT(CO7,LEN("4"))="4"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="2" operator="beginsWith" text="3">
+      <formula>LEFT(CO7,LEN("3"))="3"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="3" operator="beginsWith" text="2">
+      <formula>LEFT(CO7,LEN("2"))="2"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="00">
+      <formula>NOT(ISERROR(SEARCH("00",CO7)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="7" priority="5" operator="beginsWith" text="0">
+      <formula>LEFT(CO7,LEN("0"))="0"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="1">
+      <formula>LEFT(CO7,LEN("1"))="1"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
